--- a/BackEnd/AccData.xlsx
+++ b/BackEnd/AccData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhil\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trepa\Desktop\AccidentsInfo\BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA4CAB1-B225-4891-BA59-AE15D17499D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB820B-0782-4367-877E-516A3989888D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C87853A-6224-4974-AD8C-F52B455F522B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9C87853A-6224-4974-AD8C-F52B455F522B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -1174,10 +1174,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1496,45 +1496,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C255D3-1610-4A3B-A584-0BB991539706}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="56.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="56.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="17" style="4" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="24.109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.21875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="20.54296875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.1796875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="24.08984375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
     <col min="20" max="20" width="24" style="4" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="17.5546875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="42.33203125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="20.44140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="172.88671875" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="8.77734375" style="4"/>
+    <col min="21" max="21" width="17.6328125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.36328125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="17.54296875" style="4" customWidth="1"/>
+    <col min="26" max="26" width="42.36328125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="20.453125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="172.90625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>251</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
@@ -1633,10 +1633,10 @@
       <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>318</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1712,7 +1712,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
@@ -1722,10 +1722,10 @@
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>319</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1801,7 +1801,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>279</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1890,7 +1890,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1003</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>281</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1979,7 +1979,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1004</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2068,7 +2068,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1005</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2157,7 +2157,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1006</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>284</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2246,7 +2246,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1007</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>285</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2335,7 +2335,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1008</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>286</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2424,7 +2424,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1009</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>287</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2513,7 +2513,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1010</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2602,7 +2602,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1011</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="C13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2691,7 +2691,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1012</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="C14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2780,7 +2780,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1013</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="C15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>291</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2869,7 +2869,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1014</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="C16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2958,7 +2958,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1015</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>293</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3047,7 +3047,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1016</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>294</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3136,7 +3136,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1017</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>295</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3225,7 +3225,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>1018</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>296</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3314,7 +3314,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>1019</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3403,7 +3403,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1020</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>298</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3492,7 +3492,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>1021</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="C23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>299</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3581,7 +3581,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1022</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>300</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3670,7 +3670,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>1023</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>301</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3759,7 +3759,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1024</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>303</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3848,7 +3848,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>1025</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>304</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -3937,7 +3937,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1026</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>305</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -4026,7 +4026,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>1027</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>306</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -4115,7 +4115,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>1028</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>307</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4204,7 +4204,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>1029</v>
       </c>
@@ -4214,7 +4214,7 @@
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>308</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -4293,7 +4293,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1030</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>309</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -4382,7 +4382,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>1031</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>310</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -4471,7 +4471,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>1032</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="C34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -4560,7 +4560,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>1033</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="C35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>312</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -4649,7 +4649,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>1034</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="C36" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -4738,7 +4738,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>1035</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="C37" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>314</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -4827,7 +4827,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>1036</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="C38" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>315</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4916,7 +4916,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>1037</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="C39" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>316</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -5005,7 +5005,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>1038</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="C40" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -5094,7 +5094,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>1039</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="C41" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>302</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -5198,12 +5198,12 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5228,36 +5228,36 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6"/>
+      <c r="O1" s="7"/>
       <c r="P1" t="s">
         <v>10</v>
       </c>
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="7"/>
       <c r="Z1" t="s">
         <v>16</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>42375</v>
       </c>
@@ -5293,10 +5293,10 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" t="s">
         <v>26</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>42387</v>
       </c>
@@ -5320,123 +5320,117 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>42388</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C5" s="1">
         <v>42389</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
         <v>42390</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>42391</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>42392</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>42393</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>42394</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C11" s="1">
         <v>42395</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>42396</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>42397</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>42398</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>42399</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>42400</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="H3:H6"/>
@@ -5453,6 +5447,12 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
